--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\pycharm\API_TEST_FEAME\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F914E87-4BC8-4A78-872D-7B0FFA135D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EC2057-53BE-4F77-8DE1-1CF79E717E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="1200" windowWidth="20664" windowHeight="10272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -165,6 +165,10 @@
   </si>
   <si>
     <t>$.access_token</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -534,10 +538,10 @@
     <col min="11" max="11" width="10.3984375" customWidth="1"/>
     <col min="12" max="12" width="14.8984375" customWidth="1"/>
     <col min="13" max="13" width="18.19921875" customWidth="1"/>
-    <col min="14" max="14" width="37.8984375" customWidth="1"/>
+    <col min="14" max="14" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,8 +584,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -616,7 +623,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -657,7 +664,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -689,7 +696,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>39</v>
       </c>
@@ -730,7 +737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -762,7 +769,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="25.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="25.8" x14ac:dyDescent="0.25">
       <c r="H8" s="1"/>
     </row>
   </sheetData>
